--- a/config_12.08/shoping_config_cjj.xlsx
+++ b/config_12.08/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8601,8 +8601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8750,9 +8750,7 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2">
-        <v>10330</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -8833,9 +8831,7 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8916,9 +8912,7 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -8999,9 +8993,7 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9082,9 +9074,7 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9165,9 +9155,7 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9248,9 +9236,7 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9331,9 +9317,7 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9415,9 +9399,6 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9501,9 +9482,6 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10489,9 +10467,6 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10571,11 +10546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM479"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N433" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14366,7 +14341,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="82" t="s">
         <v>235</v>
@@ -14422,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="82" t="s">
         <v>237</v>
@@ -14478,7 +14453,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="82" t="s">
         <v>239</v>
@@ -14534,7 +14509,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>241</v>
@@ -14590,7 +14565,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="82" t="s">
         <v>242</v>
@@ -15925,7 +15900,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="86" t="s">
         <v>266</v>
@@ -17959,7 +17934,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="86" t="s">
         <v>332</v>
@@ -18015,7 +17990,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="86" t="s">
         <v>540</v>
@@ -27300,7 +27275,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="86" t="s">
         <v>543</v>
@@ -36758,7 +36733,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="82" t="s">
         <v>1485</v>

--- a/config_12.08/shoping_config_cjj.xlsx
+++ b/config_12.08/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7356,14 +7356,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7629,6 +7621,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8601,7 +8601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
@@ -10546,11 +10546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM479"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30775,11 +30775,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30792,13 +30792,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="Q328" s="48" t="s">
         <v>1134</v>
@@ -30808,7 +30808,7 @@
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30861,7 +30861,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30874,23 +30874,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30943,7 +30943,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30956,23 +30956,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -31025,7 +31025,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -31038,23 +31038,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -31107,7 +31107,7 @@
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -31120,23 +31120,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31189,7 +31189,7 @@
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31202,23 +31202,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31284,23 +31284,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31353,7 +31353,7 @@
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31366,23 +31366,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31435,7 +31435,7 @@
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31448,23 +31448,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31517,7 +31517,7 @@
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31530,23 +31530,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -38049,7 +38049,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1448</v>
@@ -38114,7 +38114,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1444</v>
@@ -38179,7 +38179,7 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q436" s="10" t="s">
         <v>1572</v>
@@ -38244,7 +38244,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1443</v>
@@ -38309,7 +38309,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1450</v>
@@ -38374,7 +38374,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1445</v>
@@ -38439,7 +38439,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1446</v>
@@ -39414,7 +39414,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -40720,7 +40720,7 @@
         <v>1680</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1699</v>
+        <v>1766</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40741,7 +40741,7 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1700</v>
+        <v>1767</v>
       </c>
       <c r="V475" s="73" t="s">
         <v>1689</v>
@@ -40779,13 +40779,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="80" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H476" s="80" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I476" s="80" t="s">
         <v>1746</v>
-      </c>
-      <c r="H476" s="80" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I476" s="80" t="s">
-        <v>1748</v>
       </c>
       <c r="K476" s="80">
         <v>-31</v>
@@ -40797,19 +40797,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O476" s="80">
         <v>49800</v>
       </c>
       <c r="P476" s="80" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q476" s="81" t="s">
+        <v>1749</v>
+      </c>
+      <c r="V476" s="80" t="s">
         <v>1750</v>
-      </c>
-      <c r="Q476" s="81" t="s">
-        <v>1751</v>
-      </c>
-      <c r="V476" s="80" t="s">
-        <v>1752</v>
       </c>
       <c r="W476" s="80">
         <v>9999999</v>
@@ -40844,13 +40844,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="80" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="I477" s="80" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="K477" s="80">
         <v>-31</v>
@@ -40862,19 +40862,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O477" s="80">
         <v>19800</v>
       </c>
       <c r="P477" s="80" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q477" s="81" t="s">
+        <v>1753</v>
+      </c>
+      <c r="V477" s="80" t="s">
         <v>1750</v>
-      </c>
-      <c r="Q477" s="81" t="s">
-        <v>1755</v>
-      </c>
-      <c r="V477" s="80" t="s">
-        <v>1752</v>
       </c>
       <c r="W477" s="80">
         <v>9999999</v>
@@ -40909,13 +40909,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="80" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="I478" s="80" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="K478" s="80">
         <v>-31</v>
@@ -40927,16 +40927,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O478" s="80">
         <v>9800</v>
       </c>
       <c r="P478" s="80" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q478" s="81" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="V478" s="80" t="s">
         <v>553</v>
@@ -40974,13 +40974,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="80" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="I479" s="80" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="K479" s="80">
         <v>-31</v>
@@ -40992,19 +40992,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="80" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="O479" s="80">
         <v>4800</v>
       </c>
       <c r="P479" s="80" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Q479" s="81" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="V479" s="80" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="W479" s="80">
         <v>9999999</v>
@@ -41802,7 +41802,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41816,7 +41816,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41830,7 +41830,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41844,7 +41844,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41858,7 +41858,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41872,7 +41872,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41886,7 +41886,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41900,7 +41900,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41914,7 +41914,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41928,7 +41928,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41942,7 +41942,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41956,7 +41956,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41970,7 +41970,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41984,7 +41984,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>

--- a/config_12.08/shoping_config_cjj.xlsx
+++ b/config_12.08/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1776">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7630,6 +7630,34 @@
   <si>
     <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
   </si>
 </sst>
 </file>
@@ -7858,7 +7886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8136,6 +8164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10544,13 +10575,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="AG455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -41025,6 +41056,378 @@
         <v>1</v>
       </c>
       <c r="AL479" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="67">
+        <v>479</v>
+      </c>
+      <c r="B480" s="67">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="67">
+        <v>1</v>
+      </c>
+      <c r="G480" s="67" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I480" s="67" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K480" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="67">
+        <v>0</v>
+      </c>
+      <c r="M480" s="67">
+        <v>0</v>
+      </c>
+      <c r="N480" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O480" s="67">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q480" s="68" t="s">
+        <v>1770</v>
+      </c>
+      <c r="V480" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W480" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="67">
+        <v>480</v>
+      </c>
+      <c r="B481" s="67">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="67">
+        <v>1</v>
+      </c>
+      <c r="G481" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="I481" s="67" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K481" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="67">
+        <v>0</v>
+      </c>
+      <c r="M481" s="67">
+        <v>0</v>
+      </c>
+      <c r="N481" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O481" s="67">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q481" s="68" t="s">
+        <v>1415</v>
+      </c>
+      <c r="V481" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W481" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="67">
+        <v>481</v>
+      </c>
+      <c r="B482" s="67">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="67">
+        <v>1</v>
+      </c>
+      <c r="G482" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="I482" s="67" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K482" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="67">
+        <v>0</v>
+      </c>
+      <c r="M482" s="67">
+        <v>0</v>
+      </c>
+      <c r="N482" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O482" s="67">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q482" s="68" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V482" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W482" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="67">
+        <v>482</v>
+      </c>
+      <c r="B483" s="67">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="67">
+        <v>1</v>
+      </c>
+      <c r="G483" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="I483" s="67" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K483" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="67">
+        <v>0</v>
+      </c>
+      <c r="M483" s="67">
+        <v>0</v>
+      </c>
+      <c r="N483" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O483" s="67">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q483" s="68" t="s">
+        <v>1417</v>
+      </c>
+      <c r="V483" s="67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="W483" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="67">
+        <v>483</v>
+      </c>
+      <c r="B484" s="67">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="67">
+        <v>1</v>
+      </c>
+      <c r="G484" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I484" s="67" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K484" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="67">
+        <v>0</v>
+      </c>
+      <c r="M484" s="67">
+        <v>0</v>
+      </c>
+      <c r="N484" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O484" s="67">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q484" s="68" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V484" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="W484" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="67" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="67">
+        <v>484</v>
+      </c>
+      <c r="B485" s="67">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="67">
+        <v>1</v>
+      </c>
+      <c r="G485" s="67" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I485" s="67" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K485" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="67">
+        <v>0</v>
+      </c>
+      <c r="M485" s="67">
+        <v>0</v>
+      </c>
+      <c r="N485" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O485" s="67">
+        <v>600</v>
+      </c>
+      <c r="P485" s="67" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q485" s="68" t="s">
+        <v>1413</v>
+      </c>
+      <c r="V485" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="W485" s="67">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="93">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="93">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="67">
         <v>1</v>
       </c>
     </row>

--- a/config_12.08/shoping_config_cjj.xlsx
+++ b/config_12.08/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7629,18 +7629,6 @@
   </si>
   <si>
     <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7712,7 +7700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7827,12 +7815,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7876,7 +7858,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8154,9 +8136,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10565,10 +10544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN488"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AF455" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
@@ -10613,7 +10592,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10731,11 +10710,8 @@
       <c r="AM1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10793,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10851,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10909,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10978,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11032,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11090,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11147,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11201,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11255,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11309,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11363,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11420,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11474,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11531,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -14237,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -14291,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -14354,7 +14330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="82">
         <v>66</v>
       </c>
@@ -14409,9 +14385,8 @@
       <c r="AH67" s="82">
         <v>1</v>
       </c>
-      <c r="AN67" s="86"/>
-    </row>
-    <row r="68" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="82">
         <v>67</v>
       </c>
@@ -14466,9 +14441,8 @@
       <c r="AH68" s="82">
         <v>1</v>
       </c>
-      <c r="AN68" s="86"/>
-    </row>
-    <row r="69" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="82">
         <v>68</v>
       </c>
@@ -14523,9 +14497,8 @@
       <c r="AH69" s="82">
         <v>1</v>
       </c>
-      <c r="AN69" s="86"/>
-    </row>
-    <row r="70" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="82">
         <v>69</v>
       </c>
@@ -14580,9 +14553,8 @@
       <c r="AH70" s="82">
         <v>1</v>
       </c>
-      <c r="AN70" s="86"/>
-    </row>
-    <row r="71" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="82">
         <v>70</v>
       </c>
@@ -14637,9 +14609,8 @@
       <c r="AH71" s="82">
         <v>1</v>
       </c>
-      <c r="AN71" s="86"/>
-    </row>
-    <row r="72" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -14702,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -14761,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -14820,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -14879,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -14938,7 +14909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -14994,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -15059,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -15124,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -27293,7 +27264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:39" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="86">
         <v>272</v>
       </c>
@@ -27348,9 +27319,8 @@
       <c r="AH273" s="86">
         <v>1</v>
       </c>
-      <c r="AN273" s="82"/>
-    </row>
-    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27426,7 +27396,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27491,7 +27461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27556,7 +27526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27621,7 +27591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -27686,7 +27656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -27751,7 +27721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -27816,7 +27786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -27881,7 +27851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -27946,7 +27916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28011,7 +27981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28076,7 +28046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28138,7 +28108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28200,7 +28170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28262,7 +28232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -34855,7 +34825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -34923,7 +34893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -34990,9 +34960,8 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-      <c r="AN386" s="61"/>
-    </row>
-    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35059,9 +35028,8 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-      <c r="AN387" s="61"/>
-    </row>
-    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35128,9 +35096,8 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-      <c r="AN388" s="61"/>
-    </row>
-    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35197,9 +35164,8 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-      <c r="AN389" s="77"/>
-    </row>
-    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35266,9 +35232,8 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-      <c r="AN390" s="77"/>
-    </row>
-    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35335,9 +35300,8 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-      <c r="AN391" s="77"/>
-    </row>
-    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35404,9 +35368,8 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-      <c r="AN392" s="61"/>
-    </row>
-    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35473,9 +35436,8 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-      <c r="AN393" s="61"/>
-    </row>
-    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35542,9 +35504,8 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-      <c r="AN394" s="61"/>
-    </row>
-    <row r="395" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="52">
         <v>394</v>
       </c>
@@ -35605,9 +35566,8 @@
       <c r="AL395" s="52">
         <v>1</v>
       </c>
-      <c r="AN395" s="5"/>
-    </row>
-    <row r="396" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="52">
         <v>395</v>
       </c>
@@ -35668,9 +35628,8 @@
       <c r="AL396" s="52">
         <v>1</v>
       </c>
-      <c r="AN396" s="5"/>
-    </row>
-    <row r="397" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="52">
         <v>396</v>
       </c>
@@ -35731,9 +35690,8 @@
       <c r="AL397" s="52">
         <v>1</v>
       </c>
-      <c r="AN397" s="5"/>
-    </row>
-    <row r="398" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="52">
         <v>397</v>
       </c>
@@ -35794,9 +35752,8 @@
       <c r="AL398" s="52">
         <v>1</v>
       </c>
-      <c r="AN398" s="5"/>
-    </row>
-    <row r="399" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="52">
         <v>398</v>
       </c>
@@ -35857,9 +35814,8 @@
       <c r="AL399" s="52">
         <v>1</v>
       </c>
-      <c r="AN399" s="5"/>
-    </row>
-    <row r="400" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="52">
         <v>399</v>
       </c>
@@ -35920,9 +35876,8 @@
       <c r="AL400" s="52">
         <v>1</v>
       </c>
-      <c r="AN400" s="5"/>
-    </row>
-    <row r="401" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="54">
         <v>400</v>
       </c>
@@ -35986,9 +35941,8 @@
       <c r="AL401" s="54">
         <v>1</v>
       </c>
-      <c r="AN401" s="5"/>
-    </row>
-    <row r="402" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="54">
         <v>401</v>
       </c>
@@ -36052,9 +36006,8 @@
       <c r="AL402" s="54">
         <v>1</v>
       </c>
-      <c r="AN402" s="5"/>
-    </row>
-    <row r="403" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="54">
         <v>402</v>
       </c>
@@ -36118,9 +36071,8 @@
       <c r="AL403" s="54">
         <v>1</v>
       </c>
-      <c r="AN403" s="5"/>
-    </row>
-    <row r="404" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="54">
         <v>403</v>
       </c>
@@ -36184,9 +36136,8 @@
       <c r="AL404" s="54">
         <v>1</v>
       </c>
-      <c r="AN404" s="5"/>
-    </row>
-    <row r="405" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="54">
         <v>404</v>
       </c>
@@ -36250,9 +36201,8 @@
       <c r="AL405" s="54">
         <v>1</v>
       </c>
-      <c r="AN405" s="5"/>
-    </row>
-    <row r="406" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="54">
         <v>405</v>
       </c>
@@ -36316,9 +36266,8 @@
       <c r="AL406" s="54">
         <v>1</v>
       </c>
-      <c r="AN406" s="5"/>
-    </row>
-    <row r="407" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="54">
         <v>406</v>
       </c>
@@ -36382,9 +36331,8 @@
       <c r="AL407" s="54">
         <v>1</v>
       </c>
-      <c r="AN407" s="5"/>
-    </row>
-    <row r="408" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="61">
         <v>407</v>
       </c>
@@ -36448,9 +36396,8 @@
       <c r="AL408" s="61">
         <v>1</v>
       </c>
-      <c r="AN408" s="5"/>
-    </row>
-    <row r="409" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="61">
         <v>408</v>
       </c>
@@ -36514,9 +36461,8 @@
       <c r="AL409" s="61">
         <v>1</v>
       </c>
-      <c r="AN409" s="5"/>
-    </row>
-    <row r="410" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="61">
         <v>409</v>
       </c>
@@ -36580,9 +36526,8 @@
       <c r="AL410" s="61">
         <v>1</v>
       </c>
-      <c r="AN410" s="5"/>
-    </row>
-    <row r="411" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="61">
         <v>410</v>
       </c>
@@ -36646,9 +36591,8 @@
       <c r="AL411" s="61">
         <v>1</v>
       </c>
-      <c r="AN411" s="5"/>
-    </row>
-    <row r="412" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="61">
         <v>411</v>
       </c>
@@ -36712,9 +36656,8 @@
       <c r="AL412" s="61">
         <v>1</v>
       </c>
-      <c r="AN412" s="5"/>
-    </row>
-    <row r="413" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="61">
         <v>412</v>
       </c>
@@ -36778,9 +36721,8 @@
       <c r="AL413" s="61">
         <v>1</v>
       </c>
-      <c r="AN413" s="5"/>
-    </row>
-    <row r="414" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:38" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="82">
         <v>413</v>
       </c>
@@ -36835,9 +36777,8 @@
       <c r="AH414" s="82">
         <v>1</v>
       </c>
-      <c r="AN414" s="5"/>
-    </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -36905,7 +36846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -36973,7 +36914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37043,7 +36984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37113,7 +37054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37181,7 +37122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37249,7 +37190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37317,7 +37258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="67">
         <v>421</v>
       </c>
@@ -37384,9 +37325,8 @@
       <c r="AL422" s="67">
         <v>1</v>
       </c>
-      <c r="AN422" s="6"/>
-    </row>
-    <row r="423" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="67">
         <v>422</v>
       </c>
@@ -37453,9 +37393,8 @@
       <c r="AL423" s="67">
         <v>1</v>
       </c>
-      <c r="AN423" s="6"/>
-    </row>
-    <row r="424" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="67">
         <v>423</v>
       </c>
@@ -37522,9 +37461,8 @@
       <c r="AL424" s="67">
         <v>1</v>
       </c>
-      <c r="AN424" s="6"/>
-    </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37579,11 +37517,8 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-      <c r="AN425" s="6" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37639,7 +37574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37694,11 +37629,8 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-      <c r="AN427" s="6" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -37754,7 +37686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -37810,7 +37742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -37878,7 +37810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -37946,7 +37878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -40115,7 +40047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="69">
         <v>464</v>
       </c>
@@ -40183,7 +40115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="69">
         <v>465</v>
       </c>
@@ -40248,7 +40180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="69">
         <v>466</v>
       </c>
@@ -40316,7 +40248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="73">
         <v>467</v>
       </c>
@@ -40381,7 +40313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="73">
         <v>468</v>
       </c>
@@ -40446,7 +40378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="73">
         <v>469</v>
       </c>
@@ -40511,7 +40443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="73">
         <v>470</v>
       </c>
@@ -40576,7 +40508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="73">
         <v>471</v>
       </c>
@@ -40641,7 +40573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="73">
         <v>472</v>
       </c>
@@ -40706,7 +40638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="69">
         <v>473</v>
       </c>
@@ -40770,9 +40702,8 @@
       <c r="AL474" s="75">
         <v>1</v>
       </c>
-      <c r="AN474" s="93"/>
-    </row>
-    <row r="475" spans="1:40" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="69">
         <v>474</v>
       </c>
@@ -40836,9 +40767,8 @@
       <c r="AL475" s="75">
         <v>1</v>
       </c>
-      <c r="AN475" s="93"/>
-    </row>
-    <row r="476" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="80">
         <v>475</v>
       </c>
@@ -40903,7 +40833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="80">
         <v>476</v>
       </c>
@@ -40968,7 +40898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="80">
         <v>477</v>
       </c>
@@ -41033,7 +40963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="80">
         <v>478</v>
       </c>
@@ -41097,33 +41027,6 @@
       <c r="AL479" s="80">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AN480" s="5"/>
-    </row>
-    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN481" s="5"/>
-    </row>
-    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN482" s="5"/>
-    </row>
-    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN483" s="5"/>
-    </row>
-    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN484" s="5"/>
-    </row>
-    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN485" s="5"/>
-    </row>
-    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN486" s="5"/>
-    </row>
-    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN487" s="5"/>
-    </row>
-    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_12.08/shoping_config_cjj.xlsx
+++ b/config_12.08/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="1771">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7629,6 +7629,18 @@
   </si>
   <si>
     <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7700,7 +7712,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7815,6 +7827,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7858,7 +7876,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8136,6 +8154,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10544,13 +10565,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AN488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q455" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AF455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10592,7 +10613,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10710,8 +10731,11 @@
       <c r="AM1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN1" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10769,7 +10793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10827,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10885,7 +10909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10954,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11008,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11066,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11123,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11177,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11231,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11285,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11339,7 +11363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11396,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11450,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11507,7 +11531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -14213,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -14267,7 +14291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -14330,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="82">
         <v>66</v>
       </c>
@@ -14385,8 +14409,9 @@
       <c r="AH67" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN67" s="86"/>
+    </row>
+    <row r="68" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="82">
         <v>67</v>
       </c>
@@ -14441,8 +14466,9 @@
       <c r="AH68" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN68" s="86"/>
+    </row>
+    <row r="69" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="82">
         <v>68</v>
       </c>
@@ -14497,8 +14523,9 @@
       <c r="AH69" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN69" s="86"/>
+    </row>
+    <row r="70" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="82">
         <v>69</v>
       </c>
@@ -14553,8 +14580,9 @@
       <c r="AH70" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN70" s="86"/>
+    </row>
+    <row r="71" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="82">
         <v>70</v>
       </c>
@@ -14609,8 +14637,9 @@
       <c r="AH71" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN71" s="86"/>
+    </row>
+    <row r="72" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -14673,7 +14702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -14732,7 +14761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -14791,7 +14820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -14850,7 +14879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -14909,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -14965,7 +14994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -15030,7 +15059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -15095,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -27264,7 +27293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="86">
         <v>272</v>
       </c>
@@ -27319,8 +27348,9 @@
       <c r="AH273" s="86">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AN273" s="82"/>
+    </row>
+    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27396,7 +27426,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27461,7 +27491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27526,7 +27556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27591,7 +27621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -27656,7 +27686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -27721,7 +27751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -27786,7 +27816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -27851,7 +27881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -27916,7 +27946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -27981,7 +28011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28046,7 +28076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28108,7 +28138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28170,7 +28200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28232,7 +28262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -34825,7 +34855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -34893,7 +34923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -34960,8 +34990,9 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN386" s="61"/>
+    </row>
+    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35028,8 +35059,9 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN387" s="61"/>
+    </row>
+    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35096,8 +35128,9 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN388" s="61"/>
+    </row>
+    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35164,8 +35197,9 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN389" s="77"/>
+    </row>
+    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35232,8 +35266,9 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN390" s="77"/>
+    </row>
+    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35300,8 +35335,9 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN391" s="77"/>
+    </row>
+    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35368,8 +35404,9 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN392" s="61"/>
+    </row>
+    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35436,8 +35473,9 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN393" s="61"/>
+    </row>
+    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35504,8 +35542,9 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN394" s="61"/>
+    </row>
+    <row r="395" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="52">
         <v>394</v>
       </c>
@@ -35566,8 +35605,9 @@
       <c r="AL395" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN395" s="5"/>
+    </row>
+    <row r="396" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="52">
         <v>395</v>
       </c>
@@ -35628,8 +35668,9 @@
       <c r="AL396" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN396" s="5"/>
+    </row>
+    <row r="397" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="52">
         <v>396</v>
       </c>
@@ -35690,8 +35731,9 @@
       <c r="AL397" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN397" s="5"/>
+    </row>
+    <row r="398" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="52">
         <v>397</v>
       </c>
@@ -35752,8 +35794,9 @@
       <c r="AL398" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN398" s="5"/>
+    </row>
+    <row r="399" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="52">
         <v>398</v>
       </c>
@@ -35814,8 +35857,9 @@
       <c r="AL399" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:38" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN399" s="5"/>
+    </row>
+    <row r="400" spans="1:40" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="52">
         <v>399</v>
       </c>
@@ -35876,8 +35920,9 @@
       <c r="AL400" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN400" s="5"/>
+    </row>
+    <row r="401" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="54">
         <v>400</v>
       </c>
@@ -35941,8 +35986,9 @@
       <c r="AL401" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN401" s="5"/>
+    </row>
+    <row r="402" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="54">
         <v>401</v>
       </c>
@@ -36006,8 +36052,9 @@
       <c r="AL402" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN402" s="5"/>
+    </row>
+    <row r="403" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="54">
         <v>402</v>
       </c>
@@ -36071,8 +36118,9 @@
       <c r="AL403" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN403" s="5"/>
+    </row>
+    <row r="404" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="54">
         <v>403</v>
       </c>
@@ -36136,8 +36184,9 @@
       <c r="AL404" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN404" s="5"/>
+    </row>
+    <row r="405" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="54">
         <v>404</v>
       </c>
@@ -36201,8 +36250,9 @@
       <c r="AL405" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN405" s="5"/>
+    </row>
+    <row r="406" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="54">
         <v>405</v>
       </c>
@@ -36266,8 +36316,9 @@
       <c r="AL406" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN406" s="5"/>
+    </row>
+    <row r="407" spans="1:40" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="54">
         <v>406</v>
       </c>
@@ -36331,8 +36382,9 @@
       <c r="AL407" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN407" s="5"/>
+    </row>
+    <row r="408" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="61">
         <v>407</v>
       </c>
@@ -36396,8 +36448,9 @@
       <c r="AL408" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN408" s="5"/>
+    </row>
+    <row r="409" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="61">
         <v>408</v>
       </c>
@@ -36461,8 +36514,9 @@
       <c r="AL409" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN409" s="5"/>
+    </row>
+    <row r="410" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="61">
         <v>409</v>
       </c>
@@ -36526,8 +36580,9 @@
       <c r="AL410" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN410" s="5"/>
+    </row>
+    <row r="411" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="61">
         <v>410</v>
       </c>
@@ -36591,8 +36646,9 @@
       <c r="AL411" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN411" s="5"/>
+    </row>
+    <row r="412" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="61">
         <v>411</v>
       </c>
@@ -36656,8 +36712,9 @@
       <c r="AL412" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN412" s="5"/>
+    </row>
+    <row r="413" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="61">
         <v>412</v>
       </c>
@@ -36721,8 +36778,9 @@
       <c r="AL413" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:38" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN413" s="5"/>
+    </row>
+    <row r="414" spans="1:40" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="82">
         <v>413</v>
       </c>
@@ -36777,8 +36835,9 @@
       <c r="AH414" s="82">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN414" s="5"/>
+    </row>
+    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -36846,7 +36905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -36914,7 +36973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -36984,7 +37043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37054,7 +37113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37122,7 +37181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37190,7 +37249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37258,7 +37317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="67">
         <v>421</v>
       </c>
@@ -37325,8 +37384,9 @@
       <c r="AL422" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN422" s="6"/>
+    </row>
+    <row r="423" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="67">
         <v>422</v>
       </c>
@@ -37393,8 +37453,9 @@
       <c r="AL423" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN423" s="6"/>
+    </row>
+    <row r="424" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="67">
         <v>423</v>
       </c>
@@ -37461,8 +37522,9 @@
       <c r="AL424" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN424" s="6"/>
+    </row>
+    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37517,8 +37579,11 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN425" s="6" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37574,7 +37639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37629,8 +37694,11 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN427" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -37686,7 +37754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -37742,7 +37810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -37810,7 +37878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -37878,7 +37946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -40047,7 +40115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="69">
         <v>464</v>
       </c>
@@ -40115,7 +40183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="69">
         <v>465</v>
       </c>
@@ -40180,7 +40248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="69">
         <v>466</v>
       </c>
@@ -40248,7 +40316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="73">
         <v>467</v>
       </c>
@@ -40313,7 +40381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="73">
         <v>468</v>
       </c>
@@ -40378,7 +40446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="73">
         <v>469</v>
       </c>
@@ -40443,7 +40511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="73">
         <v>470</v>
       </c>
@@ -40508,7 +40576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="73">
         <v>471</v>
       </c>
@@ -40573,7 +40641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:40" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="73">
         <v>472</v>
       </c>
@@ -40638,7 +40706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:40" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="69">
         <v>473</v>
       </c>
@@ -40702,8 +40770,9 @@
       <c r="AL474" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN474" s="93"/>
+    </row>
+    <row r="475" spans="1:40" s="75" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="69">
         <v>474</v>
       </c>
@@ -40767,8 +40836,9 @@
       <c r="AL475" s="75">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN475" s="93"/>
+    </row>
+    <row r="476" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="80">
         <v>475</v>
       </c>
@@ -40833,7 +40903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="80">
         <v>476</v>
       </c>
@@ -40898,7 +40968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="80">
         <v>477</v>
       </c>
@@ -40963,7 +41033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:40" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="80">
         <v>478</v>
       </c>
@@ -41027,6 +41097,33 @@
       <c r="AL479" s="80">
         <v>1</v>
       </c>
+    </row>
+    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN480" s="5"/>
+    </row>
+    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN481" s="5"/>
+    </row>
+    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN482" s="5"/>
+    </row>
+    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN483" s="5"/>
+    </row>
+    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN484" s="5"/>
+    </row>
+    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN485" s="5"/>
+    </row>
+    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN486" s="5"/>
+    </row>
+    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN487" s="5"/>
+    </row>
+    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
